--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\code\xk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AE4928-78F4-4191-B154-1835376CBAC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD77FA16-AF9F-4F87-95BC-056751E4B230}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6048" xr2:uid="{8D7DF0D0-85F5-4F04-B14D-0129EE8F07F9}"/>
   </bookViews>
@@ -890,10 +890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>total_cred</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>临床医学院</t>
   </si>
   <si>
@@ -918,6 +914,10 @@
   </si>
   <si>
     <t>S030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_credit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665C1D1E-F997-4DD4-AC6A-39D54861F51B}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1298,19 +1298,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>221</v>
-      </c>
-      <c r="C1" t="s">
-        <v>222</v>
       </c>
       <c r="D1" t="s">
         <v>217</v>
       </c>
       <c r="E1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
         <v>199</v>
@@ -1338,7 +1338,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
         <v>200</v>
@@ -1355,7 +1355,7 @@
         <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
         <v>201</v>
@@ -1372,7 +1372,7 @@
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
         <v>202</v>
@@ -1389,7 +1389,7 @@
         <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
         <v>203</v>
@@ -1406,7 +1406,7 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
         <v>204</v>
@@ -1423,7 +1423,7 @@
         <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
         <v>205</v>
@@ -1440,7 +1440,7 @@
         <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
         <v>206</v>
@@ -1457,10 +1457,10 @@
         <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
         <v>202</v>
@@ -1491,7 +1491,7 @@
         <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
         <v>203</v>
@@ -1508,7 +1508,7 @@
         <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
         <v>202</v>
@@ -1525,7 +1525,7 @@
         <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D14" t="s">
         <v>207</v>
@@ -1542,7 +1542,7 @@
         <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
         <v>208</v>
@@ -1559,7 +1559,7 @@
         <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
         <v>214</v>
@@ -1576,7 +1576,7 @@
         <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
         <v>210</v>
@@ -1593,7 +1593,7 @@
         <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" t="s">
         <v>209</v>
@@ -1610,7 +1610,7 @@
         <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
         <v>215</v>
@@ -1627,7 +1627,7 @@
         <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s">
         <v>212</v>
@@ -1644,7 +1644,7 @@
         <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D21" t="s">
         <v>213</v>
@@ -1661,10 +1661,10 @@
         <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
         <v>214</v>
@@ -1695,7 +1695,7 @@
         <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D24" t="s">
         <v>216</v>
@@ -1712,7 +1712,7 @@
         <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D25" t="s">
         <v>208</v>
@@ -1729,7 +1729,7 @@
         <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D26" t="s">
         <v>210</v>
@@ -1746,7 +1746,7 @@
         <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D27" t="s">
         <v>209</v>
@@ -1763,7 +1763,7 @@
         <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D28" t="s">
         <v>213</v>
@@ -1780,7 +1780,7 @@
         <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D29" t="s">
         <v>215</v>
@@ -1797,7 +1797,7 @@
         <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" t="s">
         <v>211</v>
@@ -1808,13 +1808,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
         <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" t="s">
         <v>212</v>
@@ -1831,7 +1831,7 @@
         <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D32" t="s">
         <v>216</v>
@@ -1848,7 +1848,7 @@
         <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D33" t="s">
         <v>209</v>
@@ -1865,7 +1865,7 @@
         <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D34" t="s">
         <v>215</v>
@@ -1882,7 +1882,7 @@
         <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -1899,7 +1899,7 @@
         <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D36" t="s">
         <v>214</v>
@@ -1916,10 +1916,10 @@
         <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D38" t="s">
         <v>208</v>
@@ -1950,7 +1950,7 @@
         <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D39" t="s">
         <v>216</v>
@@ -1967,7 +1967,7 @@
         <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D40" t="s">
         <v>213</v>
@@ -1984,7 +1984,7 @@
         <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D41" t="s">
         <v>212</v>
@@ -2001,7 +2001,7 @@
         <v>139</v>
       </c>
       <c r="C42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D42" t="s">
         <v>209</v>
@@ -2018,7 +2018,7 @@
         <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D43" t="s">
         <v>215</v>
@@ -2035,7 +2035,7 @@
         <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D44" t="s">
         <v>216</v>
@@ -2052,7 +2052,7 @@
         <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D45" t="s">
         <v>210</v>
@@ -2069,10 +2069,10 @@
         <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D47" t="s">
         <v>208</v>
@@ -2103,7 +2103,7 @@
         <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s">
         <v>211</v>
@@ -2120,7 +2120,7 @@
         <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D49" t="s">
         <v>214</v>
@@ -2137,7 +2137,7 @@
         <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s">
         <v>212</v>
@@ -2154,10 +2154,10 @@
         <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D52" t="s">
         <v>206</v>
@@ -2188,7 +2188,7 @@
         <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s">
         <v>209</v>
@@ -2205,7 +2205,7 @@
         <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D54" t="s">
         <v>215</v>
@@ -2222,7 +2222,7 @@
         <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D55" t="s">
         <v>210</v>
@@ -2239,7 +2239,7 @@
         <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D56" t="s">
         <v>213</v>
@@ -2256,7 +2256,7 @@
         <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D57" t="s">
         <v>211</v>
@@ -2273,7 +2273,7 @@
         <v>155</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D58" t="s">
         <v>208</v>
@@ -2290,7 +2290,7 @@
         <v>156</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D59" t="s">
         <v>214</v>
@@ -2307,7 +2307,7 @@
         <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D60" t="s">
         <v>215</v>
@@ -2324,7 +2324,7 @@
         <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D61" t="s">
         <v>209</v>
@@ -2341,7 +2341,7 @@
         <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D62" t="s">
         <v>216</v>
@@ -2358,7 +2358,7 @@
         <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D63" t="s">
         <v>212</v>
@@ -2375,7 +2375,7 @@
         <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D64" t="s">
         <v>210</v>
@@ -2392,7 +2392,7 @@
         <v>162</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D65" t="s">
         <v>213</v>
@@ -2409,10 +2409,10 @@
         <v>163</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2426,7 +2426,7 @@
         <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D67" t="s">
         <v>208</v>
@@ -2443,7 +2443,7 @@
         <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D68" t="s">
         <v>211</v>
@@ -2460,7 +2460,7 @@
         <v>166</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D69" t="s">
         <v>215</v>
@@ -2477,7 +2477,7 @@
         <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D70" t="s">
         <v>214</v>
@@ -2494,7 +2494,7 @@
         <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D71" t="s">
         <v>216</v>
@@ -2511,7 +2511,7 @@
         <v>169</v>
       </c>
       <c r="C72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D72" t="s">
         <v>213</v>
@@ -2528,7 +2528,7 @@
         <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D73" t="s">
         <v>212</v>
@@ -2545,7 +2545,7 @@
         <v>171</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" t="s">
         <v>209</v>
@@ -2562,7 +2562,7 @@
         <v>172</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" t="s">
         <v>215</v>
@@ -2579,7 +2579,7 @@
         <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" t="s">
         <v>210</v>
@@ -2596,10 +2596,10 @@
         <v>174</v>
       </c>
       <c r="C77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>175</v>
       </c>
       <c r="C78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" t="s">
         <v>208</v>
@@ -2630,7 +2630,7 @@
         <v>176</v>
       </c>
       <c r="C79" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" t="s">
         <v>216</v>
@@ -2647,7 +2647,7 @@
         <v>177</v>
       </c>
       <c r="C80" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" t="s">
         <v>214</v>
@@ -2664,7 +2664,7 @@
         <v>178</v>
       </c>
       <c r="C81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D81" t="s">
         <v>211</v>
@@ -2681,7 +2681,7 @@
         <v>179</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D82" t="s">
         <v>209</v>
@@ -2698,7 +2698,7 @@
         <v>180</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D83" t="s">
         <v>215</v>
@@ -2715,7 +2715,7 @@
         <v>181</v>
       </c>
       <c r="C84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D84" t="s">
         <v>213</v>
@@ -2732,7 +2732,7 @@
         <v>182</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D85" t="s">
         <v>212</v>
@@ -2749,10 +2749,10 @@
         <v>183</v>
       </c>
       <c r="C86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>184</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D87" t="s">
         <v>210</v>
@@ -2783,7 +2783,7 @@
         <v>185</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D88" t="s">
         <v>208</v>
@@ -2800,7 +2800,7 @@
         <v>186</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D89" t="s">
         <v>214</v>
@@ -2817,7 +2817,7 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D90" t="s">
         <v>211</v>
@@ -2834,7 +2834,7 @@
         <v>188</v>
       </c>
       <c r="C91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D91" t="s">
         <v>213</v>
@@ -2851,7 +2851,7 @@
         <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D92" t="s">
         <v>212</v>
@@ -2868,7 +2868,7 @@
         <v>190</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D93" t="s">
         <v>216</v>
@@ -2885,7 +2885,7 @@
         <v>191</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D94" t="s">
         <v>210</v>
@@ -2902,7 +2902,7 @@
         <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D95" t="s">
         <v>209</v>
@@ -2919,7 +2919,7 @@
         <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D96" t="s">
         <v>214</v>
@@ -2936,7 +2936,7 @@
         <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D97" t="s">
         <v>208</v>
@@ -2953,7 +2953,7 @@
         <v>195</v>
       </c>
       <c r="C98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D98" t="s">
         <v>213</v>
@@ -2970,10 +2970,10 @@
         <v>196</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>197</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D100" t="s">
         <v>211</v>
@@ -3004,7 +3004,7 @@
         <v>198</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D101" t="s">
         <v>216</v>
